--- a/auto/new_data/2_google_IN.xlsx
+++ b/auto/new_data/2_google_IN.xlsx
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>40926</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>92</v>
@@ -718,10 +718,10 @@
         <v>40927</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>40932</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>40933</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>89</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>40936</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>40939</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>40939</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>40940</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>40942</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>40945</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>40949</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>40950</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>40959</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>40962</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -1236,7 +1236,7 @@
         <v>40963</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
         <v>89</v>
@@ -1250,10 +1250,10 @@
         <v>40964</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>40966</v>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>40967</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>40968</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>40969</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>88</v>
@@ -1334,10 +1334,10 @@
         <v>40969</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>40970</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>79</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>40973</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>40975</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>40980</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>40983</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
         <v>92</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -1558,10 +1558,10 @@
         <v>40985</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         <v>40992</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>40996</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
         <v>100</v>
@@ -1726,10 +1726,10 @@
         <v>40997</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>40998</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -1796,10 +1796,10 @@
         <v>41001</v>
       </c>
       <c r="B97" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>41002</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>41003</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>41005</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>41007</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>41013</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>41017</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>41018</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>41020</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>41022</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>41024</v>
       </c>
       <c r="B120" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>41026</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>41030</v>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -2258,10 +2258,10 @@
         <v>41033</v>
       </c>
       <c r="B130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -2342,10 +2342,10 @@
         <v>41039</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>41044</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>41045</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C142" t="n">
         <v>86</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>41047</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>41048</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
         <v>64</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>41051</v>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="C154" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>41058</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>

--- a/auto/new_data/2_google_IN.xlsx
+++ b/auto/new_data/2_google_IN.xlsx
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>40920</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>40926</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>92</v>
@@ -718,10 +718,10 @@
         <v>40927</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>40929</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>40931</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>40932</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
         <v>96</v>
@@ -802,10 +802,10 @@
         <v>40933</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>40935</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>40940</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>40945</v>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>40946</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>40947</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
         <v>78</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>40950</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
         <v>63</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>40954</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>40956</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>40962</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -1236,10 +1236,10 @@
         <v>40963</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>40966</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
         <v>95</v>
@@ -1292,10 +1292,10 @@
         <v>40967</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>40968</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>40969</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>40969</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>40970</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>40973</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
         <v>93</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>40975</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>40980</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>40984</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
         <v>81</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>40986</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
         <v>59</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>40988</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>94</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         <v>40992</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>40996</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>40997</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>40998</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -1796,10 +1796,10 @@
         <v>41001</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>41005</v>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
         <v>90</v>
@@ -1880,10 +1880,10 @@
         <v>41007</v>
       </c>
       <c r="B103" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>41017</v>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>41018</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>41022</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
         <v>84</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>41024</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
         <v>95</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>41028</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>41030</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C127" t="n">
         <v>73</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>41032</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
         <v>100</v>
@@ -2258,7 +2258,7 @@
         <v>41033</v>
       </c>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="n">
         <v>96</v>
@@ -2300,10 +2300,10 @@
         <v>41036</v>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>41038</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>41039</v>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>89</v>
@@ -2356,7 +2356,7 @@
         <v>41040</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
         <v>83</v>
@@ -2370,10 +2370,10 @@
         <v>41041</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>41045</v>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>86</v>
@@ -2440,7 +2440,7 @@
         <v>41046</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
         <v>76</v>
@@ -2454,10 +2454,10 @@
         <v>41047</v>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>41048</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -2594,10 +2594,10 @@
         <v>41057</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
